--- a/Souq/src/price/Souq/excel_101_casacos_e_jaquetas.xlsx
+++ b/Souq/src/price/Souq/excel_101_casacos_e_jaquetas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,2204 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BLAZER ROSA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-rosa-04-26-54-016-024.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JAQUETA MELAINE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-melaine-04-23-55-004-021.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>378,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CASACO TRICOT ANA LUIZA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-tricot-ana-luiza-04-24-06-003-002.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>478,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CASACO TRICOT ANA CAMILA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-tricot-ana-camila-04-24-06-005-030.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CARDIGAN TRICOT ANA LARA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-tricot-ana-lara-04-24-07-019-059.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>248,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CARDIGAN TRICOT ANA RITA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-tricot-ana-rita-04-24-07-020-035.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>368,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CARDIGAN DE TRICOT NAOMI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-de-tricot-naomi-04-24-07-022-054.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CARDIGAN DE TRICOT LUCY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-de-tricot-lucy-04-24-07-023-054.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>548,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>248,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CARDIGAN TRICOT MARIA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-tricot-maria-04-24-07-024-021.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CARDIGAN TRICOT ALICIA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-tricot-alicia-04-24-07-025-054.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>688,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PONCHO TRICOT ANA LETICIA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/poncho-tricot-ana-leticia-04-24-14-001-035.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PONCHO DE TRICOT LISIE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/poncho-de-tricot-lisie-04-24-14-002-012.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CASACO CHEDE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-chede-04-26-17-047-057.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>568,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>JAQUETA MICHELE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-michele-04-26-55-009-006.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>478,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CASACO LUCIANA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-luciana-04-26-17-042-024.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>568,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CARDIGAN DE TRICOT ZILDA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-de-tricot-zilda-04-24-07-013-054.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>189,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JAQUETA MIRELLE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-mirelle-04-26-55-003-035.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>759,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KIMONO SATI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/kimono-sati-04-26-06-184-001.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>JAQUETA ROBERTA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-roberta-04-23-55-003-035.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KIMONO SATI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/kimono-sati-04-26-06-184-004.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>259,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>JAQUETA DOLORES</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-dolores-04-26-55-007-004.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>439,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BLAZER HILARY</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-hilary-04-26-54-006-005.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>349,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CASACO LICI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-lici-04-26-17-038-009.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>488,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>JAQUETA ATENAS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-atenas-04-26-55-008-054.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BLAZER EVITA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-evita-04-26-54-012-002.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>469,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>JAQUETA ROSINHA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-rosinha-04-26-55-005-002.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>389,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BLAZER MARIS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-maris-04-26-54-005-002.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>269,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CASACO LAURA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-laura-04-26-17-030-054.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BLAZER DEISE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-deise-04-26-54-009-054.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CASACO TRICOT FRANCINE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-tricot-francine-04-24-06-002-054.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CASACO ANNIE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-annie-04-26-17-027-035.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>KIMONO SERENA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/kimono-serena-04-26-06-181-024.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BLAZER NADINE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-nadine-04-26-54-014-035.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>JAQUETA MINA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-mina-04-26-55-006-023.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>449,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>JAQUETA SARJA SELENE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-sarja-selene-04-25-03-011-004.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>277,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CASACO CINDY</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-cindy-04-26-17-033-007.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>859,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BLAZER ALBERTA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-alberta-04-26-54-007-035.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>488,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BLAZER ALICE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-alice-04-23-54-001-002.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CASACO LINDSAY</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-lindsay-04-26-17-031-007.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>JAQUETA MERA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-mera-04-23-55-001-006.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CASACO CECILE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-cecile-04-26-17-037-054.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>BLAZER NINA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-nina-04-26-54-011-007.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>488,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CARDIGAN TRICOT MADISON</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-tricot-madison-04-24-07-014-008.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CASACO CASSANDRA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-cassandra-04-26-17-041-035.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>KIMONO SHIRA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/kimono-shira-04-26-06-183-054.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CASACO STELLA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-stella-04-26-17-032-054.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>539,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CASACO ZILAH</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-zilah-04-26-17-034-054.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>358,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CASACO LILIANE</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-liliane-04-26-17-036-006.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CARDIGAN TRICOT MAI</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-tricot-mai-04-24-07-011-053.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>JAQUETA SARJA JACINTA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-sarja-jacinta-04-25-03-012-001.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>JAQUETA EMI</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-emi-04-26-55-002-054.html</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>759,00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>JAQUETA SARJA PEPITA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-sarja-pepita-04-25-03-009-006.html</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>BLAZER ELISABETA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-elisabeta-04-26-54-010-030.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CARDIGAN TRICOT ANGELINA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cardigan-tricot-angelina-04-24-07-015-020.html</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CASACO LUIZA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-luiza-04-26-17-039-008.html</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CASACO DIRCE</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/casaco-dirce-04-26-17-029-054.html</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>BLAZER PANDORA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-pandora-04-26-54-004-043.html</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>488,00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>KIMONO LINA LISTRAS</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/kimono-lina-listras-04-26-06-179-053.html</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>JAQUETA SARJA JOSEPHINE</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-sarja-josephine-04-25-03-016-054.html</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>329,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>BLAZER HERMIONE</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-hermione-04-26-54-001-035.html</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>JAQUETA SARJA FABIOLA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/jaqueta-sarja-fabiola-04-25-03-015-054.html</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>329,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CASACOS E JAQUETAS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/casacos.html?p=1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BLAZER NARCISA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blazer-narcisa-04-26-54-002-003.html</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>588,00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
